--- a/GPS/user_avg_stay_point.xlsx
+++ b/GPS/user_avg_stay_point.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google雲端硬碟\資料分析師班\專題\credit_card\credit_card\DB104\GPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\專題\credit_card\DB104_hau\GPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="2" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="工作表1 (2)" sheetId="4" r:id="rId3"/>
+    <sheet name="工作表2" sheetId="3" r:id="rId4"/>
+    <sheet name="工作表4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="568">
   <si>
     <t>duration</t>
   </si>
@@ -1723,6 +1725,15 @@
   <si>
     <t>有紀錄天數</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>計數 - stay_point_coord 的加總</t>
+  </si>
+  <si>
+    <t>加總 - duration 的加總</t>
+  </si>
+  <si>
+    <t>加總 - duration</t>
   </si>
 </sst>
 </file>
@@ -3414,7 +3425,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:I19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisCol" showAll="0">
@@ -3534,6 +3545,170 @@
   </colItems>
   <dataFields count="1">
     <dataField name="計數 - stay_point_coord" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="樞紐分析表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="數值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:Q20" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item x="13"/>
+        <item x="0"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="0"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="16">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="計數 - stay_point_coord" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="加總 - duration" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -3837,27 +4012,27 @@
       <selection activeCell="E11" sqref="A3:I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.796875" customWidth="1"/>
-    <col min="3" max="8" width="6.296875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="8" width="6.28515625" customWidth="1"/>
     <col min="9" max="9" width="6" customWidth="1"/>
     <col min="10" max="15" width="12" customWidth="1"/>
     <col min="16" max="16" width="6" customWidth="1"/>
-    <col min="17" max="17" width="33.3984375" customWidth="1"/>
+    <col min="17" max="17" width="33.42578125" customWidth="1"/>
     <col min="18" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="26" width="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="32" width="12" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="34" max="38" width="12" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>561</v>
       </c>
@@ -3865,7 +4040,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>559</v>
       </c>
@@ -3894,7 +4069,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -3911,7 +4086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -3930,7 +4105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
@@ -3949,7 +4124,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -3966,7 +4141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -3987,7 +4162,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -4010,7 +4185,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -4033,7 +4208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -4054,7 +4229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -4075,7 +4250,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -4094,7 +4269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
@@ -4111,7 +4286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -4132,7 +4307,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
@@ -4149,7 +4324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -4166,7 +4341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>560</v>
       </c>
@@ -4203,18 +4378,4514 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F191"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F2">
+        <v>29.43333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" t="s">
+        <v>389</v>
+      </c>
+      <c r="F3">
+        <v>144.19999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F4">
+        <v>25.333333333333329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F5">
+        <v>14.883333333333329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" t="s">
+        <v>392</v>
+      </c>
+      <c r="F6">
+        <v>35.81666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F7">
+        <v>101.73333333333331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" t="s">
+        <v>394</v>
+      </c>
+      <c r="F8">
+        <v>19.81666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" t="s">
+        <v>395</v>
+      </c>
+      <c r="F9">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" t="s">
+        <v>396</v>
+      </c>
+      <c r="F10">
+        <v>796.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E11" t="s">
+        <v>397</v>
+      </c>
+      <c r="F11">
+        <v>16.43333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" t="s">
+        <v>398</v>
+      </c>
+      <c r="F12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" t="s">
+        <v>399</v>
+      </c>
+      <c r="F13">
+        <v>20.033333333333331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E14" t="s">
+        <v>400</v>
+      </c>
+      <c r="F14">
+        <v>121.8833333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" t="s">
+        <v>212</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" t="s">
+        <v>401</v>
+      </c>
+      <c r="F16">
+        <v>0.16666666666666671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E17" t="s">
+        <v>214</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>215</v>
+      </c>
+      <c r="E18" t="s">
+        <v>402</v>
+      </c>
+      <c r="F18">
+        <v>39.033333333333331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19" t="s">
+        <v>403</v>
+      </c>
+      <c r="F19">
+        <v>57.85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>217</v>
+      </c>
+      <c r="E20" t="s">
+        <v>404</v>
+      </c>
+      <c r="F20">
+        <v>69.333333333333329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E21" t="s">
+        <v>405</v>
+      </c>
+      <c r="F21">
+        <v>155.93333333333331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>219</v>
+      </c>
+      <c r="E22" t="s">
+        <v>406</v>
+      </c>
+      <c r="F22">
+        <v>127.8333333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>220</v>
+      </c>
+      <c r="E23" t="s">
+        <v>407</v>
+      </c>
+      <c r="F23">
+        <v>69.433333333333337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>221</v>
+      </c>
+      <c r="E24" t="s">
+        <v>408</v>
+      </c>
+      <c r="F24">
+        <v>116.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>222</v>
+      </c>
+      <c r="E25" t="s">
+        <v>409</v>
+      </c>
+      <c r="F25">
+        <v>253.5333333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
+        <v>223</v>
+      </c>
+      <c r="E26" t="s">
+        <v>410</v>
+      </c>
+      <c r="F26">
+        <v>317.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>224</v>
+      </c>
+      <c r="E27" t="s">
+        <v>411</v>
+      </c>
+      <c r="F27">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E28" t="s">
+        <v>412</v>
+      </c>
+      <c r="F28">
+        <v>58.883333333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
+        <v>226</v>
+      </c>
+      <c r="E29" t="s">
+        <v>413</v>
+      </c>
+      <c r="F29">
+        <v>43.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>227</v>
+      </c>
+      <c r="E30" t="s">
+        <v>414</v>
+      </c>
+      <c r="F30">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E31" t="s">
+        <v>415</v>
+      </c>
+      <c r="F31">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
+        <v>229</v>
+      </c>
+      <c r="E32" t="s">
+        <v>416</v>
+      </c>
+      <c r="F32">
+        <v>148.98333333333329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" t="s">
+        <v>417</v>
+      </c>
+      <c r="F33">
+        <v>37.450000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>231</v>
+      </c>
+      <c r="E34" t="s">
+        <v>418</v>
+      </c>
+      <c r="F34">
+        <v>64.733333333333334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s">
+        <v>232</v>
+      </c>
+      <c r="E35" t="s">
+        <v>419</v>
+      </c>
+      <c r="F35">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>233</v>
+      </c>
+      <c r="E36" t="s">
+        <v>420</v>
+      </c>
+      <c r="F36">
+        <v>40.049999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" t="s">
+        <v>234</v>
+      </c>
+      <c r="E37" t="s">
+        <v>421</v>
+      </c>
+      <c r="F37">
+        <v>165.55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" t="s">
+        <v>235</v>
+      </c>
+      <c r="E38" t="s">
+        <v>422</v>
+      </c>
+      <c r="F38">
+        <v>7.7666666666666666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" t="s">
+        <v>236</v>
+      </c>
+      <c r="E39" t="s">
+        <v>423</v>
+      </c>
+      <c r="F39">
+        <v>45.016666666666673</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" t="s">
+        <v>237</v>
+      </c>
+      <c r="E40" t="s">
+        <v>424</v>
+      </c>
+      <c r="F40">
+        <v>899.98333333333335</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" t="s">
+        <v>238</v>
+      </c>
+      <c r="E41" t="s">
+        <v>425</v>
+      </c>
+      <c r="F41">
+        <v>80.166666666666671</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" t="s">
+        <v>239</v>
+      </c>
+      <c r="E42" t="s">
+        <v>426</v>
+      </c>
+      <c r="F42">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" t="s">
+        <v>240</v>
+      </c>
+      <c r="E43" t="s">
+        <v>427</v>
+      </c>
+      <c r="F43">
+        <v>97.11666666666666</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>241</v>
+      </c>
+      <c r="E44" t="s">
+        <v>428</v>
+      </c>
+      <c r="F44">
+        <v>204.16666666666671</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" t="s">
+        <v>242</v>
+      </c>
+      <c r="E45" t="s">
+        <v>429</v>
+      </c>
+      <c r="F45">
+        <v>218.4666666666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" t="s">
+        <v>243</v>
+      </c>
+      <c r="E46" t="s">
+        <v>430</v>
+      </c>
+      <c r="F46">
+        <v>381.06666666666672</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" t="s">
+        <v>244</v>
+      </c>
+      <c r="E47" t="s">
+        <v>431</v>
+      </c>
+      <c r="F47">
+        <v>42.083333333333343</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" t="s">
+        <v>245</v>
+      </c>
+      <c r="E48" t="s">
+        <v>432</v>
+      </c>
+      <c r="F48">
+        <v>372.95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>246</v>
+      </c>
+      <c r="E49" t="s">
+        <v>433</v>
+      </c>
+      <c r="F49">
+        <v>99.583333333333329</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" t="s">
+        <v>247</v>
+      </c>
+      <c r="E50" t="s">
+        <v>434</v>
+      </c>
+      <c r="F50">
+        <v>96.35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" t="s">
+        <v>248</v>
+      </c>
+      <c r="E51" t="s">
+        <v>435</v>
+      </c>
+      <c r="F51">
+        <v>111.9166666666667</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" t="s">
+        <v>249</v>
+      </c>
+      <c r="E52" t="s">
+        <v>436</v>
+      </c>
+      <c r="F52">
+        <v>188.81666666666669</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" t="s">
+        <v>250</v>
+      </c>
+      <c r="E53" t="s">
+        <v>437</v>
+      </c>
+      <c r="F53">
+        <v>66.066666666666663</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" t="s">
+        <v>251</v>
+      </c>
+      <c r="E54" t="s">
+        <v>438</v>
+      </c>
+      <c r="F54">
+        <v>198.16666666666671</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" t="s">
+        <v>252</v>
+      </c>
+      <c r="E55" t="s">
+        <v>439</v>
+      </c>
+      <c r="F55">
+        <v>276.14999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" t="s">
+        <v>253</v>
+      </c>
+      <c r="E56" t="s">
+        <v>440</v>
+      </c>
+      <c r="F56">
+        <v>60.06666666666667</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" t="s">
+        <v>254</v>
+      </c>
+      <c r="E57" t="s">
+        <v>441</v>
+      </c>
+      <c r="F57">
+        <v>262.33333333333331</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" t="s">
+        <v>255</v>
+      </c>
+      <c r="E58" t="s">
+        <v>442</v>
+      </c>
+      <c r="F58">
+        <v>81.849999999999994</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" t="s">
+        <v>256</v>
+      </c>
+      <c r="E59" t="s">
+        <v>443</v>
+      </c>
+      <c r="F59">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" t="s">
+        <v>257</v>
+      </c>
+      <c r="E60" t="s">
+        <v>444</v>
+      </c>
+      <c r="F60">
+        <v>222.15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" t="s">
+        <v>258</v>
+      </c>
+      <c r="E61" t="s">
+        <v>445</v>
+      </c>
+      <c r="F61">
+        <v>150.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" t="s">
+        <v>259</v>
+      </c>
+      <c r="E62" t="s">
+        <v>446</v>
+      </c>
+      <c r="F62">
+        <v>140.73333333333329</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" t="s">
+        <v>260</v>
+      </c>
+      <c r="E63" t="s">
+        <v>447</v>
+      </c>
+      <c r="F63">
+        <v>54.06666666666667</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" t="s">
+        <v>261</v>
+      </c>
+      <c r="E64" t="s">
+        <v>448</v>
+      </c>
+      <c r="F64">
+        <v>48.05</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" t="s">
+        <v>262</v>
+      </c>
+      <c r="E65" t="s">
+        <v>449</v>
+      </c>
+      <c r="F65">
+        <v>183.56666666666669</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" t="s">
+        <v>263</v>
+      </c>
+      <c r="E66" t="s">
+        <v>263</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" t="s">
+        <v>264</v>
+      </c>
+      <c r="E67" t="s">
+        <v>450</v>
+      </c>
+      <c r="F67">
+        <v>102.05</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" t="s">
+        <v>265</v>
+      </c>
+      <c r="E68" t="s">
+        <v>451</v>
+      </c>
+      <c r="F68">
+        <v>108.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69" t="s">
+        <v>266</v>
+      </c>
+      <c r="E69" t="s">
+        <v>452</v>
+      </c>
+      <c r="F69">
+        <v>72.066666666666663</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70" t="s">
+        <v>267</v>
+      </c>
+      <c r="E70" t="s">
+        <v>453</v>
+      </c>
+      <c r="F70">
+        <v>47.983333333333327</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" t="s">
+        <v>268</v>
+      </c>
+      <c r="E71" t="s">
+        <v>454</v>
+      </c>
+      <c r="F71">
+        <v>87.766666666666666</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D72" t="s">
+        <v>269</v>
+      </c>
+      <c r="E72" t="s">
+        <v>455</v>
+      </c>
+      <c r="F72">
+        <v>133.1333333333333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D73" t="s">
+        <v>270</v>
+      </c>
+      <c r="E73" t="s">
+        <v>456</v>
+      </c>
+      <c r="F73">
+        <v>53.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D74" t="s">
+        <v>271</v>
+      </c>
+      <c r="E74" t="s">
+        <v>457</v>
+      </c>
+      <c r="F74">
+        <v>68.983333333333334</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D75" t="s">
+        <v>272</v>
+      </c>
+      <c r="E75" t="s">
+        <v>458</v>
+      </c>
+      <c r="F75">
+        <v>19.116666666666671</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76" t="s">
+        <v>273</v>
+      </c>
+      <c r="E76" t="s">
+        <v>459</v>
+      </c>
+      <c r="F76">
+        <v>99.016666666666666</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" t="s">
+        <v>274</v>
+      </c>
+      <c r="E77" t="s">
+        <v>460</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" t="s">
+        <v>275</v>
+      </c>
+      <c r="E78" t="s">
+        <v>461</v>
+      </c>
+      <c r="F78">
+        <v>37.833333333333343</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79" t="s">
+        <v>276</v>
+      </c>
+      <c r="E79" t="s">
+        <v>462</v>
+      </c>
+      <c r="F79">
+        <v>21.366666666666671</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D80" t="s">
+        <v>277</v>
+      </c>
+      <c r="E80" t="s">
+        <v>463</v>
+      </c>
+      <c r="F80">
+        <v>202.4666666666667</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D81" t="s">
+        <v>278</v>
+      </c>
+      <c r="E81" t="s">
+        <v>464</v>
+      </c>
+      <c r="F81">
+        <v>72.066666666666663</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D82" t="s">
+        <v>279</v>
+      </c>
+      <c r="E82" t="s">
+        <v>465</v>
+      </c>
+      <c r="F82">
+        <v>242.76666666666671</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D83" t="s">
+        <v>280</v>
+      </c>
+      <c r="E83" t="s">
+        <v>466</v>
+      </c>
+      <c r="F83">
+        <v>189.6333333333333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D84" t="s">
+        <v>281</v>
+      </c>
+      <c r="E84" t="s">
+        <v>467</v>
+      </c>
+      <c r="F84">
+        <v>121.6333333333333</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D85" t="s">
+        <v>282</v>
+      </c>
+      <c r="E85" t="s">
+        <v>468</v>
+      </c>
+      <c r="F85">
+        <v>100.06666666666671</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D86" t="s">
+        <v>283</v>
+      </c>
+      <c r="E86" t="s">
+        <v>469</v>
+      </c>
+      <c r="F86">
+        <v>261.26666666666671</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D87" t="s">
+        <v>284</v>
+      </c>
+      <c r="E87" t="s">
+        <v>470</v>
+      </c>
+      <c r="F87">
+        <v>46.016666666666673</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D88" t="s">
+        <v>285</v>
+      </c>
+      <c r="E88" t="s">
+        <v>471</v>
+      </c>
+      <c r="F88">
+        <v>45.05</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D89" t="s">
+        <v>286</v>
+      </c>
+      <c r="E89" t="s">
+        <v>472</v>
+      </c>
+      <c r="F89">
+        <v>306.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D90" t="s">
+        <v>287</v>
+      </c>
+      <c r="E90" t="s">
+        <v>473</v>
+      </c>
+      <c r="F90">
+        <v>195.33333333333329</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" t="s">
+        <v>288</v>
+      </c>
+      <c r="E91" t="s">
+        <v>474</v>
+      </c>
+      <c r="F91">
+        <v>235.08333333333329</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D92" t="s">
+        <v>289</v>
+      </c>
+      <c r="E92" t="s">
+        <v>475</v>
+      </c>
+      <c r="F92">
+        <v>19.733333333333331</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D93" t="s">
+        <v>290</v>
+      </c>
+      <c r="E93" t="s">
+        <v>476</v>
+      </c>
+      <c r="F93">
+        <v>9.6666666666666661</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D94" t="s">
+        <v>291</v>
+      </c>
+      <c r="E94" t="s">
+        <v>477</v>
+      </c>
+      <c r="F94">
+        <v>33.56666666666667</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D95" t="s">
+        <v>292</v>
+      </c>
+      <c r="E95" t="s">
+        <v>478</v>
+      </c>
+      <c r="F95">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D96" t="s">
+        <v>293</v>
+      </c>
+      <c r="E96" t="s">
+        <v>479</v>
+      </c>
+      <c r="F96">
+        <v>3.2666666666666671</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D97" t="s">
+        <v>294</v>
+      </c>
+      <c r="E97" t="s">
+        <v>480</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D98" t="s">
+        <v>295</v>
+      </c>
+      <c r="E98" t="s">
+        <v>481</v>
+      </c>
+      <c r="F98">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D99" t="s">
+        <v>296</v>
+      </c>
+      <c r="E99" t="s">
+        <v>482</v>
+      </c>
+      <c r="F99">
+        <v>22.31666666666667</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D100" t="s">
+        <v>297</v>
+      </c>
+      <c r="E100" t="s">
+        <v>483</v>
+      </c>
+      <c r="F100">
+        <v>16.966666666666669</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D101" t="s">
+        <v>298</v>
+      </c>
+      <c r="E101" t="s">
+        <v>484</v>
+      </c>
+      <c r="F101">
+        <v>16.016666666666669</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D102" t="s">
+        <v>299</v>
+      </c>
+      <c r="E102" t="s">
+        <v>485</v>
+      </c>
+      <c r="F102">
+        <v>27.616666666666671</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D103" t="s">
+        <v>300</v>
+      </c>
+      <c r="E103" t="s">
+        <v>486</v>
+      </c>
+      <c r="F103">
+        <v>31.833333333333329</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D104" t="s">
+        <v>301</v>
+      </c>
+      <c r="E104" t="s">
+        <v>487</v>
+      </c>
+      <c r="F104">
+        <v>130.48333333333329</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D105" t="s">
+        <v>302</v>
+      </c>
+      <c r="E105" t="s">
+        <v>488</v>
+      </c>
+      <c r="F105">
+        <v>81.216666666666669</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D106" t="s">
+        <v>303</v>
+      </c>
+      <c r="E106" t="s">
+        <v>489</v>
+      </c>
+      <c r="F106">
+        <v>131.5333333333333</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D107" t="s">
+        <v>304</v>
+      </c>
+      <c r="E107" t="s">
+        <v>490</v>
+      </c>
+      <c r="F107">
+        <v>255.95</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D108" t="s">
+        <v>305</v>
+      </c>
+      <c r="E108" t="s">
+        <v>491</v>
+      </c>
+      <c r="F108">
+        <v>40.56666666666667</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D109" t="s">
+        <v>306</v>
+      </c>
+      <c r="E109" t="s">
+        <v>306</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D110" t="s">
+        <v>307</v>
+      </c>
+      <c r="E110" t="s">
+        <v>492</v>
+      </c>
+      <c r="F110">
+        <v>58.966666666666669</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D111" t="s">
+        <v>308</v>
+      </c>
+      <c r="E111" t="s">
+        <v>493</v>
+      </c>
+      <c r="F111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D112" t="s">
+        <v>309</v>
+      </c>
+      <c r="E112" t="s">
+        <v>494</v>
+      </c>
+      <c r="F112">
+        <v>58.266666666666673</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D113" t="s">
+        <v>310</v>
+      </c>
+      <c r="E113" t="s">
+        <v>495</v>
+      </c>
+      <c r="F113">
+        <v>193.51666666666671</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D114" t="s">
+        <v>311</v>
+      </c>
+      <c r="E114" t="s">
+        <v>496</v>
+      </c>
+      <c r="F114">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D115" t="s">
+        <v>312</v>
+      </c>
+      <c r="E115" t="s">
+        <v>497</v>
+      </c>
+      <c r="F115">
+        <v>228.48333333333329</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D116" t="s">
+        <v>313</v>
+      </c>
+      <c r="E116" t="s">
+        <v>498</v>
+      </c>
+      <c r="F116">
+        <v>410.23333333333329</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D117" t="s">
+        <v>314</v>
+      </c>
+      <c r="E117" t="s">
+        <v>499</v>
+      </c>
+      <c r="F117">
+        <v>166.16666666666671</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D118" t="s">
+        <v>315</v>
+      </c>
+      <c r="E118" t="s">
+        <v>500</v>
+      </c>
+      <c r="F118">
+        <v>236.81666666666669</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D119" t="s">
+        <v>316</v>
+      </c>
+      <c r="E119" t="s">
+        <v>501</v>
+      </c>
+      <c r="F119">
+        <v>46.15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D120" t="s">
+        <v>317</v>
+      </c>
+      <c r="E120" t="s">
+        <v>502</v>
+      </c>
+      <c r="F120">
+        <v>212.48333333333329</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D121" t="s">
+        <v>318</v>
+      </c>
+      <c r="E121" t="s">
+        <v>503</v>
+      </c>
+      <c r="F121">
+        <v>62.883333333333333</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D122" t="s">
+        <v>319</v>
+      </c>
+      <c r="E122" t="s">
+        <v>504</v>
+      </c>
+      <c r="F122">
+        <v>29.966666666666669</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D123" t="s">
+        <v>320</v>
+      </c>
+      <c r="E123" t="s">
+        <v>505</v>
+      </c>
+      <c r="F123">
+        <v>30.266666666666669</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D124" t="s">
+        <v>321</v>
+      </c>
+      <c r="E124" t="s">
+        <v>506</v>
+      </c>
+      <c r="F124">
+        <v>323.91666666666669</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D125" t="s">
+        <v>322</v>
+      </c>
+      <c r="E125" t="s">
+        <v>489</v>
+      </c>
+      <c r="F125">
+        <v>189.73333333333329</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D126" t="s">
+        <v>323</v>
+      </c>
+      <c r="E126" t="s">
+        <v>507</v>
+      </c>
+      <c r="F126">
+        <v>63.283333333333331</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D127" t="s">
+        <v>324</v>
+      </c>
+      <c r="E127" t="s">
+        <v>424</v>
+      </c>
+      <c r="F127">
+        <v>320.60000000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D128" t="s">
+        <v>325</v>
+      </c>
+      <c r="E128" t="s">
+        <v>508</v>
+      </c>
+      <c r="F128">
+        <v>58.31666666666667</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D129" t="s">
+        <v>326</v>
+      </c>
+      <c r="E129" t="s">
+        <v>509</v>
+      </c>
+      <c r="F129">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D130" t="s">
+        <v>327</v>
+      </c>
+      <c r="E130" t="s">
+        <v>510</v>
+      </c>
+      <c r="F130">
+        <v>18.016666666666669</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D131" t="s">
+        <v>328</v>
+      </c>
+      <c r="E131" t="s">
+        <v>511</v>
+      </c>
+      <c r="F131">
+        <v>82.36666666666666</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D132" t="s">
+        <v>329</v>
+      </c>
+      <c r="E132" t="s">
+        <v>512</v>
+      </c>
+      <c r="F132">
+        <v>415.41666666666669</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D133" t="s">
+        <v>330</v>
+      </c>
+      <c r="E133" t="s">
+        <v>513</v>
+      </c>
+      <c r="F133">
+        <v>126.1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D134" t="s">
+        <v>331</v>
+      </c>
+      <c r="E134" t="s">
+        <v>514</v>
+      </c>
+      <c r="F134">
+        <v>75.716666666666669</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D135" t="s">
+        <v>332</v>
+      </c>
+      <c r="E135" t="s">
+        <v>515</v>
+      </c>
+      <c r="F135">
+        <v>191.68333333333331</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D136" t="s">
+        <v>333</v>
+      </c>
+      <c r="E136" t="s">
+        <v>516</v>
+      </c>
+      <c r="F136">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D137" t="s">
+        <v>334</v>
+      </c>
+      <c r="E137" t="s">
+        <v>517</v>
+      </c>
+      <c r="F137">
+        <v>364.55</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D138" t="s">
+        <v>335</v>
+      </c>
+      <c r="E138" t="s">
+        <v>518</v>
+      </c>
+      <c r="F138">
+        <v>309.51666666666671</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D139" t="s">
+        <v>336</v>
+      </c>
+      <c r="E139" t="s">
+        <v>519</v>
+      </c>
+      <c r="F139">
+        <v>265.88333333333333</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D140" t="s">
+        <v>337</v>
+      </c>
+      <c r="E140" t="s">
+        <v>520</v>
+      </c>
+      <c r="F140">
+        <v>78.066666666666663</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D141" t="s">
+        <v>338</v>
+      </c>
+      <c r="E141" t="s">
+        <v>521</v>
+      </c>
+      <c r="F141">
+        <v>18.016666666666669</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D142" t="s">
+        <v>339</v>
+      </c>
+      <c r="E142" t="s">
+        <v>339</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D143" t="s">
+        <v>340</v>
+      </c>
+      <c r="E143" t="s">
+        <v>340</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D144" t="s">
+        <v>341</v>
+      </c>
+      <c r="E144" t="s">
+        <v>522</v>
+      </c>
+      <c r="F144">
+        <v>30.31666666666667</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D145" t="s">
+        <v>342</v>
+      </c>
+      <c r="E145" t="s">
+        <v>523</v>
+      </c>
+      <c r="F145">
+        <v>14.71666666666667</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D146" t="s">
+        <v>343</v>
+      </c>
+      <c r="E146" t="s">
+        <v>524</v>
+      </c>
+      <c r="F146">
+        <v>3.1333333333333329</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D147" t="s">
+        <v>344</v>
+      </c>
+      <c r="E147" t="s">
+        <v>525</v>
+      </c>
+      <c r="F147">
+        <v>1.033333333333333</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D148" t="s">
+        <v>345</v>
+      </c>
+      <c r="E148" t="s">
+        <v>345</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D149" t="s">
+        <v>346</v>
+      </c>
+      <c r="E149" t="s">
+        <v>346</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D150" t="s">
+        <v>347</v>
+      </c>
+      <c r="E150" t="s">
+        <v>347</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D151" t="s">
+        <v>348</v>
+      </c>
+      <c r="E151" t="s">
+        <v>526</v>
+      </c>
+      <c r="F151">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D152" t="s">
+        <v>349</v>
+      </c>
+      <c r="E152" t="s">
+        <v>527</v>
+      </c>
+      <c r="F152">
+        <v>14.81666666666667</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D153" t="s">
+        <v>350</v>
+      </c>
+      <c r="E153" t="s">
+        <v>528</v>
+      </c>
+      <c r="F153">
+        <v>28.866666666666671</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D154" t="s">
+        <v>351</v>
+      </c>
+      <c r="E154" t="s">
+        <v>529</v>
+      </c>
+      <c r="F154">
+        <v>16.283333333333331</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D155" t="s">
+        <v>352</v>
+      </c>
+      <c r="E155" t="s">
+        <v>530</v>
+      </c>
+      <c r="F155">
+        <v>16.416666666666671</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D156" t="s">
+        <v>353</v>
+      </c>
+      <c r="E156" t="s">
+        <v>353</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D157" t="s">
+        <v>354</v>
+      </c>
+      <c r="E157" t="s">
+        <v>531</v>
+      </c>
+      <c r="F157">
+        <v>43.766666666666673</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D158" t="s">
+        <v>200</v>
+      </c>
+      <c r="E158" t="s">
+        <v>200</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D159" t="s">
+        <v>355</v>
+      </c>
+      <c r="E159" t="s">
+        <v>532</v>
+      </c>
+      <c r="F159">
+        <v>24.95</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D160" t="s">
+        <v>356</v>
+      </c>
+      <c r="E160" t="s">
+        <v>356</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D161" t="s">
+        <v>357</v>
+      </c>
+      <c r="E161" t="s">
+        <v>533</v>
+      </c>
+      <c r="F161">
+        <v>26.016666666666669</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D162" t="s">
+        <v>358</v>
+      </c>
+      <c r="E162" t="s">
+        <v>534</v>
+      </c>
+      <c r="F162">
+        <v>26.583333333333329</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D163" t="s">
+        <v>359</v>
+      </c>
+      <c r="E163" t="s">
+        <v>535</v>
+      </c>
+      <c r="F163">
+        <v>28.883333333333329</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D164" t="s">
+        <v>360</v>
+      </c>
+      <c r="E164" t="s">
+        <v>536</v>
+      </c>
+      <c r="F164">
+        <v>41.383333333333333</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D165" t="s">
+        <v>361</v>
+      </c>
+      <c r="E165" t="s">
+        <v>361</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D166" t="s">
+        <v>362</v>
+      </c>
+      <c r="E166" t="s">
+        <v>537</v>
+      </c>
+      <c r="F166">
+        <v>50.283333333333331</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D167" t="s">
+        <v>363</v>
+      </c>
+      <c r="E167" t="s">
+        <v>538</v>
+      </c>
+      <c r="F167">
+        <v>120.5333333333333</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D168" t="s">
+        <v>364</v>
+      </c>
+      <c r="E168" t="s">
+        <v>539</v>
+      </c>
+      <c r="F168">
+        <v>216.06666666666669</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D169" t="s">
+        <v>365</v>
+      </c>
+      <c r="E169" t="s">
+        <v>540</v>
+      </c>
+      <c r="F169">
+        <v>44.083333333333343</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D170" t="s">
+        <v>366</v>
+      </c>
+      <c r="E170" t="s">
+        <v>366</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D171" t="s">
+        <v>367</v>
+      </c>
+      <c r="E171" t="s">
+        <v>541</v>
+      </c>
+      <c r="F171">
+        <v>4.6333333333333337</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D172" t="s">
+        <v>368</v>
+      </c>
+      <c r="E172" t="s">
+        <v>368</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D173" t="s">
+        <v>369</v>
+      </c>
+      <c r="E173" t="s">
+        <v>542</v>
+      </c>
+      <c r="F173">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D174" t="s">
+        <v>370</v>
+      </c>
+      <c r="E174" t="s">
+        <v>370</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D175" t="s">
+        <v>371</v>
+      </c>
+      <c r="E175" t="s">
+        <v>543</v>
+      </c>
+      <c r="F175">
+        <v>25.516666666666669</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D176" t="s">
+        <v>372</v>
+      </c>
+      <c r="E176" t="s">
+        <v>544</v>
+      </c>
+      <c r="F176">
+        <v>3.1833333333333331</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D177" t="s">
+        <v>373</v>
+      </c>
+      <c r="E177" t="s">
+        <v>545</v>
+      </c>
+      <c r="F177">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D178" t="s">
+        <v>374</v>
+      </c>
+      <c r="E178" t="s">
+        <v>546</v>
+      </c>
+      <c r="F178">
+        <v>1.0166666666666671</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D179" t="s">
+        <v>375</v>
+      </c>
+      <c r="E179" t="s">
+        <v>547</v>
+      </c>
+      <c r="F179">
+        <v>1.033333333333333</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D180" t="s">
+        <v>376</v>
+      </c>
+      <c r="E180" t="s">
+        <v>548</v>
+      </c>
+      <c r="F180">
+        <v>9.8833333333333329</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D181" t="s">
+        <v>377</v>
+      </c>
+      <c r="E181" t="s">
+        <v>377</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D182" t="s">
+        <v>378</v>
+      </c>
+      <c r="E182" t="s">
+        <v>378</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D183" t="s">
+        <v>379</v>
+      </c>
+      <c r="E183" t="s">
+        <v>549</v>
+      </c>
+      <c r="F183">
+        <v>3.666666666666667</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D184" t="s">
+        <v>380</v>
+      </c>
+      <c r="E184" t="s">
+        <v>550</v>
+      </c>
+      <c r="F184">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D185" t="s">
+        <v>381</v>
+      </c>
+      <c r="E185" t="s">
+        <v>551</v>
+      </c>
+      <c r="F185">
+        <v>18.850000000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D186" t="s">
+        <v>382</v>
+      </c>
+      <c r="E186" t="s">
+        <v>382</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D187" t="s">
+        <v>383</v>
+      </c>
+      <c r="E187" t="s">
+        <v>552</v>
+      </c>
+      <c r="F187">
+        <v>1.0666666666666671</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D188" t="s">
+        <v>384</v>
+      </c>
+      <c r="E188" t="s">
+        <v>553</v>
+      </c>
+      <c r="F188">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D189" t="s">
+        <v>385</v>
+      </c>
+      <c r="E189" t="s">
+        <v>554</v>
+      </c>
+      <c r="F189">
+        <v>13.633333333333329</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D190" t="s">
+        <v>386</v>
+      </c>
+      <c r="E190" t="s">
+        <v>555</v>
+      </c>
+      <c r="F190">
+        <v>10.18333333333333</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D191" t="s">
+        <v>387</v>
+      </c>
+      <c r="E191" t="s">
+        <v>556</v>
+      </c>
+      <c r="F191">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:Q20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="A3:Q20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="32" width="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="38" width="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C5" t="s">
+        <v>567</v>
+      </c>
+      <c r="D5" t="s">
+        <v>561</v>
+      </c>
+      <c r="E5" t="s">
+        <v>567</v>
+      </c>
+      <c r="F5" t="s">
+        <v>561</v>
+      </c>
+      <c r="G5" t="s">
+        <v>567</v>
+      </c>
+      <c r="H5" t="s">
+        <v>561</v>
+      </c>
+      <c r="I5" t="s">
+        <v>567</v>
+      </c>
+      <c r="J5" t="s">
+        <v>561</v>
+      </c>
+      <c r="K5" t="s">
+        <v>567</v>
+      </c>
+      <c r="L5" t="s">
+        <v>561</v>
+      </c>
+      <c r="M5" t="s">
+        <v>567</v>
+      </c>
+      <c r="N5" t="s">
+        <v>561</v>
+      </c>
+      <c r="O5" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6">
+        <v>8</v>
+      </c>
+      <c r="O6" s="6">
+        <v>51.25</v>
+      </c>
+      <c r="P6" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>51.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>198.96666666666664</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6">
+        <v>9</v>
+      </c>
+      <c r="O7" s="6">
+        <v>145.1</v>
+      </c>
+      <c r="P7" s="6">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>344.06666666666661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6">
+        <v>2</v>
+      </c>
+      <c r="K8" s="6">
+        <v>135.75</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6">
+        <v>14</v>
+      </c>
+      <c r="O8" s="6">
+        <v>570.4666666666667</v>
+      </c>
+      <c r="P8" s="6">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>706.2166666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6">
+        <v>12</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1150.0833333333333</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>1150.0833333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6">
+        <v>8</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1310.9499999999998</v>
+      </c>
+      <c r="L10" s="6">
+        <v>1</v>
+      </c>
+      <c r="M10" s="6">
+        <v>62.883333333333333</v>
+      </c>
+      <c r="N10" s="6">
+        <v>11</v>
+      </c>
+      <c r="O10" s="6">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="P10" s="6">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>1449.9333333333332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6">
+        <v>6</v>
+      </c>
+      <c r="E11" s="6">
+        <v>172.51666666666662</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
+        <v>2</v>
+      </c>
+      <c r="I11" s="6">
+        <v>980.15</v>
+      </c>
+      <c r="J11" s="6">
+        <v>16</v>
+      </c>
+      <c r="K11" s="6">
+        <v>855.56666666666661</v>
+      </c>
+      <c r="L11" s="6">
+        <v>7</v>
+      </c>
+      <c r="M11" s="6">
+        <v>1016.0833333333334</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>3024.3166666666662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
+        <v>5</v>
+      </c>
+      <c r="I12" s="6">
+        <v>918.91666666666686</v>
+      </c>
+      <c r="J12" s="6">
+        <v>8</v>
+      </c>
+      <c r="K12" s="6">
+        <v>900.8</v>
+      </c>
+      <c r="L12" s="6">
+        <v>7</v>
+      </c>
+      <c r="M12" s="6">
+        <v>927.3</v>
+      </c>
+      <c r="N12" s="6">
+        <v>6</v>
+      </c>
+      <c r="O12" s="6">
+        <v>67.48333333333332</v>
+      </c>
+      <c r="P12" s="6">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>2814.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6">
+        <v>7</v>
+      </c>
+      <c r="I13" s="6">
+        <v>977.76666666666688</v>
+      </c>
+      <c r="J13" s="6">
+        <v>5</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1071.8499999999999</v>
+      </c>
+      <c r="L13" s="6">
+        <v>5</v>
+      </c>
+      <c r="M13" s="6">
+        <v>1036.0166666666667</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>3085.6333333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
+        <v>6</v>
+      </c>
+      <c r="G14" s="6">
+        <v>919.36666666666667</v>
+      </c>
+      <c r="H14" s="6">
+        <v>6</v>
+      </c>
+      <c r="I14" s="6">
+        <v>960.86666666666667</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6">
+        <v>3</v>
+      </c>
+      <c r="M14" s="6">
+        <v>18.016666666666669</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>1898.2499999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6">
+        <v>2</v>
+      </c>
+      <c r="G15" s="6">
+        <v>62.800000000000004</v>
+      </c>
+      <c r="H15" s="6">
+        <v>8</v>
+      </c>
+      <c r="I15" s="6">
+        <v>900.7166666666667</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>963.51666666666665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6">
+        <v>2</v>
+      </c>
+      <c r="I16" s="6">
+        <v>180.26666666666665</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>180.26666666666665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6">
+        <v>986.05</v>
+      </c>
+      <c r="D17" s="6">
+        <v>7</v>
+      </c>
+      <c r="E17" s="6">
+        <v>519.41666666666663</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>148.98333333333329</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>1654.4499999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6">
+        <v>6</v>
+      </c>
+      <c r="G18" s="6">
+        <v>875.55</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>875.55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>45.016666666666673</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>45.016666666666673</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B20" s="6">
+        <v>9</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1185.0166666666664</v>
+      </c>
+      <c r="D20" s="6">
+        <v>13</v>
+      </c>
+      <c r="E20" s="6">
+        <v>691.93333333333317</v>
+      </c>
+      <c r="F20" s="6">
+        <v>16</v>
+      </c>
+      <c r="G20" s="6">
+        <v>2051.7166666666667</v>
+      </c>
+      <c r="H20" s="6">
+        <v>30</v>
+      </c>
+      <c r="I20" s="6">
+        <v>4918.6833333333334</v>
+      </c>
+      <c r="J20" s="6">
+        <v>51</v>
+      </c>
+      <c r="K20" s="6">
+        <v>5425.0000000000009</v>
+      </c>
+      <c r="L20" s="6">
+        <v>23</v>
+      </c>
+      <c r="M20" s="6">
+        <v>3060.3</v>
+      </c>
+      <c r="N20" s="6">
+        <v>48</v>
+      </c>
+      <c r="O20" s="6">
+        <v>910.4</v>
+      </c>
+      <c r="P20" s="6">
+        <v>190</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>18243.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>561</v>
       </c>
@@ -4222,7 +8893,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>559</v>
       </c>
@@ -4251,7 +8922,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -4262,7 +8933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -4276,7 +8947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -4290,7 +8961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -4301,7 +8972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -4318,7 +8989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -4338,7 +9009,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -4358,7 +9029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -4375,7 +9046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -4392,7 +9063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -4406,7 +9077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -4417,7 +9088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4434,7 +9105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4445,7 +9116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -4456,7 +9127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>564</v>
       </c>
@@ -4493,7 +9164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>560</v>
       </c>
@@ -4522,7 +9193,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>563</v>
       </c>
@@ -4565,3845 +9236,630 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F191"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.796875" style="2"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.3984375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D3" t="s">
+        <v>561</v>
+      </c>
+      <c r="E3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F3" t="s">
+        <v>561</v>
+      </c>
+      <c r="G3" t="s">
+        <v>567</v>
+      </c>
+      <c r="H3" t="s">
+        <v>561</v>
+      </c>
+      <c r="I3" t="s">
+        <v>567</v>
+      </c>
+      <c r="J3" t="s">
+        <v>561</v>
+      </c>
+      <c r="K3" t="s">
+        <v>567</v>
+      </c>
+      <c r="L3" t="s">
+        <v>561</v>
+      </c>
+      <c r="M3" t="s">
+        <v>567</v>
+      </c>
+      <c r="N3" t="s">
+        <v>561</v>
+      </c>
+      <c r="O3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4">
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <v>51.25</v>
+      </c>
+      <c r="P4">
+        <v>8</v>
+      </c>
+      <c r="Q4">
+        <v>51.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>198.96666666666664</v>
+      </c>
+      <c r="N5">
+        <v>9</v>
+      </c>
+      <c r="O5">
+        <v>145.1</v>
+      </c>
+      <c r="P5">
+        <v>12</v>
+      </c>
+      <c r="Q5">
+        <v>344.06666666666661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>135.75</v>
+      </c>
+      <c r="N6">
+        <v>14</v>
+      </c>
+      <c r="O6">
+        <v>570.4666666666667</v>
+      </c>
+      <c r="P6">
+        <v>16</v>
+      </c>
+      <c r="Q6">
+        <v>706.2166666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <v>1150.0833333333333</v>
+      </c>
+      <c r="P7">
+        <v>12</v>
+      </c>
+      <c r="Q7">
+        <v>1150.0833333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>1310.9499999999998</v>
+      </c>
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="M8">
+        <v>62.883333333333333</v>
+      </c>
+      <c r="N8">
+        <v>11</v>
+      </c>
+      <c r="O8">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="P8">
+        <v>20</v>
+      </c>
+      <c r="Q8">
+        <v>1449.9333333333332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>172.51666666666662</v>
+      </c>
+      <c r="H9">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I9">
+        <v>980.15</v>
+      </c>
+      <c r="J9">
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <v>855.56666666666661</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>1016.0833333333334</v>
+      </c>
+      <c r="P9">
+        <v>31</v>
+      </c>
+      <c r="Q9">
+        <v>3024.3166666666662</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>918.91666666666686</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>900.8</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <v>927.3</v>
+      </c>
+      <c r="N10">
+        <v>6</v>
+      </c>
+      <c r="O10">
+        <v>67.48333333333332</v>
+      </c>
+      <c r="P10">
+        <v>26</v>
+      </c>
+      <c r="Q10">
+        <v>2814.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>977.76666666666688</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>1071.8499999999999</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>1036.0166666666667</v>
+      </c>
+      <c r="P11">
+        <v>17</v>
+      </c>
+      <c r="Q11">
+        <v>3085.6333333333337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>919.36666666666667</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>960.86666666666667</v>
+      </c>
+      <c r="L12">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F2">
-        <v>29.43333333333333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E3" t="s">
-        <v>389</v>
-      </c>
-      <c r="F3">
-        <v>144.19999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E4" t="s">
-        <v>390</v>
-      </c>
-      <c r="F4">
-        <v>25.333333333333329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="M12">
+        <v>18.016666666666669</v>
+      </c>
+      <c r="P12">
+        <v>15</v>
+      </c>
+      <c r="Q12">
+        <v>1898.2499999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>62.800000000000004</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>900.7166666666667</v>
+      </c>
+      <c r="P13">
+        <v>10</v>
+      </c>
+      <c r="Q13">
+        <v>963.51666666666665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>180.26666666666665</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <v>180.26666666666665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E5" t="s">
-        <v>391</v>
-      </c>
-      <c r="F5">
-        <v>14.883333333333329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>986.05</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>519.41666666666663</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>148.98333333333329</v>
+      </c>
+      <c r="P15">
+        <v>14</v>
+      </c>
+      <c r="Q15">
+        <v>1654.4499999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>875.55</v>
+      </c>
+      <c r="P16">
+        <v>6</v>
+      </c>
+      <c r="Q16">
+        <v>875.55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>45.016666666666673</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>45.016666666666673</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>564</v>
+      </c>
+      <c r="B18">
+        <f>COUNT(B4:B17)</f>
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:Q18" si="0">COUNT(C4:C17)</f>
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>560</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>1185.0166666666664</v>
+      </c>
+      <c r="D19">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E6" t="s">
-        <v>392</v>
-      </c>
-      <c r="F6">
-        <v>35.81666666666667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="E19">
+        <v>691.93333333333317</v>
+      </c>
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>2051.7166666666667</v>
+      </c>
+      <c r="H19">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" t="s">
-        <v>393</v>
-      </c>
-      <c r="F7">
-        <v>101.73333333333331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E8" t="s">
-        <v>394</v>
-      </c>
-      <c r="F8">
-        <v>19.81666666666667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E9" t="s">
-        <v>395</v>
-      </c>
-      <c r="F9">
-        <v>17.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>207</v>
-      </c>
-      <c r="E10" t="s">
-        <v>396</v>
-      </c>
-      <c r="F10">
-        <v>796.05</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="I19">
+        <v>4918.6833333333334</v>
+      </c>
+      <c r="J19">
+        <v>51</v>
+      </c>
+      <c r="K19">
+        <v>5425.0000000000009</v>
+      </c>
+      <c r="L19">
+        <v>23</v>
+      </c>
+      <c r="M19">
+        <v>3060.3</v>
+      </c>
+      <c r="N19">
+        <v>48</v>
+      </c>
+      <c r="O19">
+        <v>910.4</v>
+      </c>
+      <c r="P19">
+        <v>190</v>
+      </c>
+      <c r="Q19">
+        <v>18243.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>563</v>
+      </c>
+      <c r="B20">
+        <f>B19/B18</f>
+        <v>4.5</v>
+      </c>
+      <c r="C20">
+        <f>C19/B19</f>
+        <v>131.66851851851848</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="C20:O20" si="1">D19/D18</f>
+        <v>6.5</v>
+      </c>
+      <c r="E20">
+        <f>E19/D19</f>
+        <v>53.225641025641011</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>3.2</v>
+      </c>
+      <c r="G20">
+        <f>G19/F19</f>
+        <v>128.23229166666667</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>208</v>
-      </c>
-      <c r="E11" t="s">
-        <v>397</v>
-      </c>
-      <c r="F11">
-        <v>16.43333333333333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>209</v>
-      </c>
-      <c r="E12" t="s">
-        <v>398</v>
-      </c>
-      <c r="F12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>210</v>
-      </c>
-      <c r="E13" t="s">
-        <v>399</v>
-      </c>
-      <c r="F13">
-        <v>20.033333333333331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>211</v>
-      </c>
-      <c r="E14" t="s">
-        <v>400</v>
-      </c>
-      <c r="F14">
-        <v>121.8833333333333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
-        <v>212</v>
-      </c>
-      <c r="E15" t="s">
-        <v>212</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>213</v>
-      </c>
-      <c r="E16" t="s">
-        <v>401</v>
-      </c>
-      <c r="F16">
-        <v>0.16666666666666671</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s">
-        <v>214</v>
-      </c>
-      <c r="E17" t="s">
-        <v>214</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>215</v>
-      </c>
-      <c r="E18" t="s">
-        <v>402</v>
-      </c>
-      <c r="F18">
-        <v>39.033333333333331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>216</v>
-      </c>
-      <c r="E19" t="s">
-        <v>403</v>
-      </c>
-      <c r="F19">
-        <v>57.85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" t="s">
-        <v>217</v>
-      </c>
-      <c r="E20" t="s">
-        <v>404</v>
-      </c>
-      <c r="F20">
-        <v>69.333333333333329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" t="s">
-        <v>218</v>
-      </c>
-      <c r="E21" t="s">
-        <v>405</v>
-      </c>
-      <c r="F21">
-        <v>155.93333333333331</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" t="s">
-        <v>219</v>
-      </c>
-      <c r="E22" t="s">
-        <v>406</v>
-      </c>
-      <c r="F22">
-        <v>127.8333333333333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" t="s">
-        <v>220</v>
-      </c>
-      <c r="E23" t="s">
-        <v>407</v>
-      </c>
-      <c r="F23">
-        <v>69.433333333333337</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" t="s">
-        <v>221</v>
-      </c>
-      <c r="E24" t="s">
-        <v>408</v>
-      </c>
-      <c r="F24">
-        <v>116.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" t="s">
-        <v>222</v>
-      </c>
-      <c r="E25" t="s">
-        <v>409</v>
-      </c>
-      <c r="F25">
-        <v>253.5333333333333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" t="s">
-        <v>223</v>
-      </c>
-      <c r="E26" t="s">
-        <v>410</v>
-      </c>
-      <c r="F26">
-        <v>317.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" t="s">
-        <v>224</v>
-      </c>
-      <c r="E27" t="s">
-        <v>411</v>
-      </c>
-      <c r="F27">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" t="s">
-        <v>225</v>
-      </c>
-      <c r="E28" t="s">
-        <v>412</v>
-      </c>
-      <c r="F28">
-        <v>58.883333333333333</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" t="s">
-        <v>226</v>
-      </c>
-      <c r="E29" t="s">
-        <v>413</v>
-      </c>
-      <c r="F29">
-        <v>43.05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" t="s">
-        <v>227</v>
-      </c>
-      <c r="E30" t="s">
-        <v>414</v>
-      </c>
-      <c r="F30">
-        <v>48.7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" t="s">
-        <v>228</v>
-      </c>
-      <c r="E31" t="s">
-        <v>415</v>
-      </c>
-      <c r="F31">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" t="s">
-        <v>229</v>
-      </c>
-      <c r="E32" t="s">
-        <v>416</v>
-      </c>
-      <c r="F32">
-        <v>148.98333333333329</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" t="s">
-        <v>230</v>
-      </c>
-      <c r="E33" t="s">
-        <v>417</v>
-      </c>
-      <c r="F33">
-        <v>37.450000000000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" t="s">
-        <v>231</v>
-      </c>
-      <c r="E34" t="s">
-        <v>418</v>
-      </c>
-      <c r="F34">
-        <v>64.733333333333334</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" t="s">
-        <v>232</v>
-      </c>
-      <c r="E35" t="s">
-        <v>419</v>
-      </c>
-      <c r="F35">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" t="s">
-        <v>233</v>
-      </c>
-      <c r="E36" t="s">
-        <v>420</v>
-      </c>
-      <c r="F36">
-        <v>40.049999999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" t="s">
-        <v>234</v>
-      </c>
-      <c r="E37" t="s">
-        <v>421</v>
-      </c>
-      <c r="F37">
-        <v>165.55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" t="s">
-        <v>235</v>
-      </c>
-      <c r="E38" t="s">
-        <v>422</v>
-      </c>
-      <c r="F38">
-        <v>7.7666666666666666</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" t="s">
-        <v>236</v>
-      </c>
-      <c r="E39" t="s">
-        <v>423</v>
-      </c>
-      <c r="F39">
-        <v>45.016666666666673</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" t="s">
-        <v>237</v>
-      </c>
-      <c r="E40" t="s">
-        <v>424</v>
-      </c>
-      <c r="F40">
-        <v>899.98333333333335</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" t="s">
-        <v>238</v>
-      </c>
-      <c r="E41" t="s">
-        <v>425</v>
-      </c>
-      <c r="F41">
-        <v>80.166666666666671</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" t="s">
-        <v>239</v>
-      </c>
-      <c r="E42" t="s">
-        <v>426</v>
-      </c>
-      <c r="F42">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" t="s">
-        <v>240</v>
-      </c>
-      <c r="E43" t="s">
-        <v>427</v>
-      </c>
-      <c r="F43">
-        <v>97.11666666666666</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" t="s">
-        <v>241</v>
-      </c>
-      <c r="E44" t="s">
-        <v>428</v>
-      </c>
-      <c r="F44">
-        <v>204.16666666666671</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D45" t="s">
-        <v>242</v>
-      </c>
-      <c r="E45" t="s">
-        <v>429</v>
-      </c>
-      <c r="F45">
-        <v>218.4666666666667</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46" t="s">
-        <v>243</v>
-      </c>
-      <c r="E46" t="s">
-        <v>430</v>
-      </c>
-      <c r="F46">
-        <v>381.06666666666672</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" t="s">
-        <v>244</v>
-      </c>
-      <c r="E47" t="s">
-        <v>431</v>
-      </c>
-      <c r="F47">
-        <v>42.083333333333343</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" t="s">
-        <v>245</v>
-      </c>
-      <c r="E48" t="s">
-        <v>432</v>
-      </c>
-      <c r="F48">
-        <v>372.95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" t="s">
-        <v>246</v>
-      </c>
-      <c r="E49" t="s">
-        <v>433</v>
-      </c>
-      <c r="F49">
-        <v>99.583333333333329</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" t="s">
-        <v>247</v>
-      </c>
-      <c r="E50" t="s">
-        <v>434</v>
-      </c>
-      <c r="F50">
-        <v>96.35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" t="s">
-        <v>248</v>
-      </c>
-      <c r="E51" t="s">
-        <v>435</v>
-      </c>
-      <c r="F51">
-        <v>111.9166666666667</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D52" t="s">
-        <v>249</v>
-      </c>
-      <c r="E52" t="s">
-        <v>436</v>
-      </c>
-      <c r="F52">
-        <v>188.81666666666669</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" t="s">
-        <v>250</v>
-      </c>
-      <c r="E53" t="s">
-        <v>437</v>
-      </c>
-      <c r="F53">
-        <v>66.066666666666663</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54" t="s">
-        <v>251</v>
-      </c>
-      <c r="E54" t="s">
-        <v>438</v>
-      </c>
-      <c r="F54">
-        <v>198.16666666666671</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D55" t="s">
-        <v>252</v>
-      </c>
-      <c r="E55" t="s">
-        <v>439</v>
-      </c>
-      <c r="F55">
-        <v>276.14999999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D56" t="s">
-        <v>253</v>
-      </c>
-      <c r="E56" t="s">
-        <v>440</v>
-      </c>
-      <c r="F56">
-        <v>60.06666666666667</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57" t="s">
-        <v>254</v>
-      </c>
-      <c r="E57" t="s">
-        <v>441</v>
-      </c>
-      <c r="F57">
-        <v>262.33333333333331</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D58" t="s">
-        <v>255</v>
-      </c>
-      <c r="E58" t="s">
-        <v>442</v>
-      </c>
-      <c r="F58">
-        <v>81.849999999999994</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D59" t="s">
-        <v>256</v>
-      </c>
-      <c r="E59" t="s">
-        <v>443</v>
-      </c>
-      <c r="F59">
-        <v>82.3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D60" t="s">
-        <v>257</v>
-      </c>
-      <c r="E60" t="s">
-        <v>444</v>
-      </c>
-      <c r="F60">
-        <v>222.15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D61" t="s">
-        <v>258</v>
-      </c>
-      <c r="E61" t="s">
-        <v>445</v>
-      </c>
-      <c r="F61">
-        <v>150.1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D62" t="s">
-        <v>259</v>
-      </c>
-      <c r="E62" t="s">
-        <v>446</v>
-      </c>
-      <c r="F62">
-        <v>140.73333333333329</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D63" t="s">
-        <v>260</v>
-      </c>
-      <c r="E63" t="s">
-        <v>447</v>
-      </c>
-      <c r="F63">
-        <v>54.06666666666667</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D64" t="s">
-        <v>261</v>
-      </c>
-      <c r="E64" t="s">
-        <v>448</v>
-      </c>
-      <c r="F64">
-        <v>48.05</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D65" t="s">
-        <v>262</v>
-      </c>
-      <c r="E65" t="s">
-        <v>449</v>
-      </c>
-      <c r="F65">
-        <v>183.56666666666669</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D66" t="s">
-        <v>263</v>
-      </c>
-      <c r="E66" t="s">
-        <v>263</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D67" t="s">
-        <v>264</v>
-      </c>
-      <c r="E67" t="s">
-        <v>450</v>
-      </c>
-      <c r="F67">
-        <v>102.05</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D68" t="s">
-        <v>265</v>
-      </c>
-      <c r="E68" t="s">
-        <v>451</v>
-      </c>
-      <c r="F68">
-        <v>108.2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D69" t="s">
-        <v>266</v>
-      </c>
-      <c r="E69" t="s">
-        <v>452</v>
-      </c>
-      <c r="F69">
-        <v>72.066666666666663</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D70" t="s">
-        <v>267</v>
-      </c>
-      <c r="E70" t="s">
-        <v>453</v>
-      </c>
-      <c r="F70">
-        <v>47.983333333333327</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D71" t="s">
-        <v>268</v>
-      </c>
-      <c r="E71" t="s">
-        <v>454</v>
-      </c>
-      <c r="F71">
-        <v>87.766666666666666</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D72" t="s">
-        <v>269</v>
-      </c>
-      <c r="E72" t="s">
-        <v>455</v>
-      </c>
-      <c r="F72">
-        <v>133.1333333333333</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D73" t="s">
-        <v>270</v>
-      </c>
-      <c r="E73" t="s">
-        <v>456</v>
-      </c>
-      <c r="F73">
-        <v>53.7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D74" t="s">
-        <v>271</v>
-      </c>
-      <c r="E74" t="s">
-        <v>457</v>
-      </c>
-      <c r="F74">
-        <v>68.983333333333334</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D75" t="s">
-        <v>272</v>
-      </c>
-      <c r="E75" t="s">
-        <v>458</v>
-      </c>
-      <c r="F75">
-        <v>19.116666666666671</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D76" t="s">
-        <v>273</v>
-      </c>
-      <c r="E76" t="s">
-        <v>459</v>
-      </c>
-      <c r="F76">
-        <v>99.016666666666666</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D77" t="s">
-        <v>274</v>
-      </c>
-      <c r="E77" t="s">
-        <v>460</v>
-      </c>
-      <c r="F77">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D78" t="s">
-        <v>275</v>
-      </c>
-      <c r="E78" t="s">
-        <v>461</v>
-      </c>
-      <c r="F78">
-        <v>37.833333333333343</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D79" t="s">
-        <v>276</v>
-      </c>
-      <c r="E79" t="s">
-        <v>462</v>
-      </c>
-      <c r="F79">
-        <v>21.366666666666671</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D80" t="s">
-        <v>277</v>
-      </c>
-      <c r="E80" t="s">
-        <v>463</v>
-      </c>
-      <c r="F80">
-        <v>202.4666666666667</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D81" t="s">
-        <v>278</v>
-      </c>
-      <c r="E81" t="s">
-        <v>464</v>
-      </c>
-      <c r="F81">
-        <v>72.066666666666663</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D82" t="s">
-        <v>279</v>
-      </c>
-      <c r="E82" t="s">
-        <v>465</v>
-      </c>
-      <c r="F82">
-        <v>242.76666666666671</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D83" t="s">
-        <v>280</v>
-      </c>
-      <c r="E83" t="s">
-        <v>466</v>
-      </c>
-      <c r="F83">
-        <v>189.6333333333333</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D84" t="s">
-        <v>281</v>
-      </c>
-      <c r="E84" t="s">
-        <v>467</v>
-      </c>
-      <c r="F84">
-        <v>121.6333333333333</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D85" t="s">
-        <v>282</v>
-      </c>
-      <c r="E85" t="s">
-        <v>468</v>
-      </c>
-      <c r="F85">
-        <v>100.06666666666671</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D86" t="s">
-        <v>283</v>
-      </c>
-      <c r="E86" t="s">
-        <v>469</v>
-      </c>
-      <c r="F86">
-        <v>261.26666666666671</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D87" t="s">
-        <v>284</v>
-      </c>
-      <c r="E87" t="s">
-        <v>470</v>
-      </c>
-      <c r="F87">
-        <v>46.016666666666673</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D88" t="s">
-        <v>285</v>
-      </c>
-      <c r="E88" t="s">
-        <v>471</v>
-      </c>
-      <c r="F88">
-        <v>45.05</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D89" t="s">
-        <v>286</v>
-      </c>
-      <c r="E89" t="s">
-        <v>472</v>
-      </c>
-      <c r="F89">
-        <v>306.5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D90" t="s">
-        <v>287</v>
-      </c>
-      <c r="E90" t="s">
-        <v>473</v>
-      </c>
-      <c r="F90">
-        <v>195.33333333333329</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D91" t="s">
-        <v>288</v>
-      </c>
-      <c r="E91" t="s">
-        <v>474</v>
-      </c>
-      <c r="F91">
-        <v>235.08333333333329</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D92" t="s">
-        <v>289</v>
-      </c>
-      <c r="E92" t="s">
-        <v>475</v>
-      </c>
-      <c r="F92">
-        <v>19.733333333333331</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D93" t="s">
-        <v>290</v>
-      </c>
-      <c r="E93" t="s">
-        <v>476</v>
-      </c>
-      <c r="F93">
-        <v>9.6666666666666661</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D94" t="s">
-        <v>291</v>
-      </c>
-      <c r="E94" t="s">
-        <v>477</v>
-      </c>
-      <c r="F94">
-        <v>33.56666666666667</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D95" t="s">
-        <v>292</v>
-      </c>
-      <c r="E95" t="s">
-        <v>478</v>
-      </c>
-      <c r="F95">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D96" t="s">
-        <v>293</v>
-      </c>
-      <c r="E96" t="s">
-        <v>479</v>
-      </c>
-      <c r="F96">
-        <v>3.2666666666666671</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D97" t="s">
-        <v>294</v>
-      </c>
-      <c r="E97" t="s">
-        <v>480</v>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D98" t="s">
-        <v>295</v>
-      </c>
-      <c r="E98" t="s">
-        <v>481</v>
-      </c>
-      <c r="F98">
-        <v>64.5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D99" t="s">
-        <v>296</v>
-      </c>
-      <c r="E99" t="s">
-        <v>482</v>
-      </c>
-      <c r="F99">
-        <v>22.31666666666667</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D100" t="s">
-        <v>297</v>
-      </c>
-      <c r="E100" t="s">
-        <v>483</v>
-      </c>
-      <c r="F100">
-        <v>16.966666666666669</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D101" t="s">
-        <v>298</v>
-      </c>
-      <c r="E101" t="s">
-        <v>484</v>
-      </c>
-      <c r="F101">
-        <v>16.016666666666669</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D102" t="s">
-        <v>299</v>
-      </c>
-      <c r="E102" t="s">
-        <v>485</v>
-      </c>
-      <c r="F102">
-        <v>27.616666666666671</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D103" t="s">
-        <v>300</v>
-      </c>
-      <c r="E103" t="s">
-        <v>486</v>
-      </c>
-      <c r="F103">
-        <v>31.833333333333329</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D104" t="s">
-        <v>301</v>
-      </c>
-      <c r="E104" t="s">
-        <v>487</v>
-      </c>
-      <c r="F104">
-        <v>130.48333333333329</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D105" t="s">
-        <v>302</v>
-      </c>
-      <c r="E105" t="s">
-        <v>488</v>
-      </c>
-      <c r="F105">
-        <v>81.216666666666669</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D106" t="s">
-        <v>303</v>
-      </c>
-      <c r="E106" t="s">
-        <v>489</v>
-      </c>
-      <c r="F106">
-        <v>131.5333333333333</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D107" t="s">
-        <v>304</v>
-      </c>
-      <c r="E107" t="s">
-        <v>490</v>
-      </c>
-      <c r="F107">
-        <v>255.95</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D108" t="s">
-        <v>305</v>
-      </c>
-      <c r="E108" t="s">
-        <v>491</v>
-      </c>
-      <c r="F108">
-        <v>40.56666666666667</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D109" t="s">
-        <v>306</v>
-      </c>
-      <c r="E109" t="s">
-        <v>306</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D110" t="s">
-        <v>307</v>
-      </c>
-      <c r="E110" t="s">
-        <v>492</v>
-      </c>
-      <c r="F110">
-        <v>58.966666666666669</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D111" t="s">
-        <v>308</v>
-      </c>
-      <c r="E111" t="s">
-        <v>493</v>
-      </c>
-      <c r="F111">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D112" t="s">
-        <v>309</v>
-      </c>
-      <c r="E112" t="s">
-        <v>494</v>
-      </c>
-      <c r="F112">
-        <v>58.266666666666673</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D113" t="s">
-        <v>310</v>
-      </c>
-      <c r="E113" t="s">
-        <v>495</v>
-      </c>
-      <c r="F113">
-        <v>193.51666666666671</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D114" t="s">
-        <v>311</v>
-      </c>
-      <c r="E114" t="s">
-        <v>496</v>
-      </c>
-      <c r="F114">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D115" t="s">
-        <v>312</v>
-      </c>
-      <c r="E115" t="s">
-        <v>497</v>
-      </c>
-      <c r="F115">
-        <v>228.48333333333329</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D116" t="s">
-        <v>313</v>
-      </c>
-      <c r="E116" t="s">
-        <v>498</v>
-      </c>
-      <c r="F116">
-        <v>410.23333333333329</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D117" t="s">
-        <v>314</v>
-      </c>
-      <c r="E117" t="s">
-        <v>499</v>
-      </c>
-      <c r="F117">
-        <v>166.16666666666671</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D118" t="s">
-        <v>315</v>
-      </c>
-      <c r="E118" t="s">
-        <v>500</v>
-      </c>
-      <c r="F118">
-        <v>236.81666666666669</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D119" t="s">
-        <v>316</v>
-      </c>
-      <c r="E119" t="s">
-        <v>501</v>
-      </c>
-      <c r="F119">
-        <v>46.15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D120" t="s">
-        <v>317</v>
-      </c>
-      <c r="E120" t="s">
-        <v>502</v>
-      </c>
-      <c r="F120">
-        <v>212.48333333333329</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D121" t="s">
-        <v>318</v>
-      </c>
-      <c r="E121" t="s">
-        <v>503</v>
-      </c>
-      <c r="F121">
-        <v>62.883333333333333</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D122" t="s">
-        <v>319</v>
-      </c>
-      <c r="E122" t="s">
-        <v>504</v>
-      </c>
-      <c r="F122">
-        <v>29.966666666666669</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D123" t="s">
-        <v>320</v>
-      </c>
-      <c r="E123" t="s">
-        <v>505</v>
-      </c>
-      <c r="F123">
-        <v>30.266666666666669</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D124" t="s">
-        <v>321</v>
-      </c>
-      <c r="E124" t="s">
-        <v>506</v>
-      </c>
-      <c r="F124">
-        <v>323.91666666666669</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D125" t="s">
-        <v>322</v>
-      </c>
-      <c r="E125" t="s">
-        <v>489</v>
-      </c>
-      <c r="F125">
-        <v>189.73333333333329</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D126" t="s">
-        <v>323</v>
-      </c>
-      <c r="E126" t="s">
-        <v>507</v>
-      </c>
-      <c r="F126">
-        <v>63.283333333333331</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D127" t="s">
-        <v>324</v>
-      </c>
-      <c r="E127" t="s">
-        <v>424</v>
-      </c>
-      <c r="F127">
-        <v>320.60000000000002</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D128" t="s">
-        <v>325</v>
-      </c>
-      <c r="E128" t="s">
-        <v>508</v>
-      </c>
-      <c r="F128">
-        <v>58.31666666666667</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D129" t="s">
-        <v>326</v>
-      </c>
-      <c r="E129" t="s">
-        <v>509</v>
-      </c>
-      <c r="F129">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D130" t="s">
-        <v>327</v>
-      </c>
-      <c r="E130" t="s">
-        <v>510</v>
-      </c>
-      <c r="F130">
-        <v>18.016666666666669</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D131" t="s">
-        <v>328</v>
-      </c>
-      <c r="E131" t="s">
-        <v>511</v>
-      </c>
-      <c r="F131">
-        <v>82.36666666666666</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D132" t="s">
-        <v>329</v>
-      </c>
-      <c r="E132" t="s">
-        <v>512</v>
-      </c>
-      <c r="F132">
-        <v>415.41666666666669</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D133" t="s">
-        <v>330</v>
-      </c>
-      <c r="E133" t="s">
-        <v>513</v>
-      </c>
-      <c r="F133">
-        <v>126.1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D134" t="s">
-        <v>331</v>
-      </c>
-      <c r="E134" t="s">
-        <v>514</v>
-      </c>
-      <c r="F134">
-        <v>75.716666666666669</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D135" t="s">
-        <v>332</v>
-      </c>
-      <c r="E135" t="s">
-        <v>515</v>
-      </c>
-      <c r="F135">
-        <v>191.68333333333331</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D136" t="s">
-        <v>333</v>
-      </c>
-      <c r="E136" t="s">
-        <v>516</v>
-      </c>
-      <c r="F136">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D137" t="s">
-        <v>334</v>
-      </c>
-      <c r="E137" t="s">
-        <v>517</v>
-      </c>
-      <c r="F137">
-        <v>364.55</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D138" t="s">
-        <v>335</v>
-      </c>
-      <c r="E138" t="s">
-        <v>518</v>
-      </c>
-      <c r="F138">
-        <v>309.51666666666671</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D139" t="s">
-        <v>336</v>
-      </c>
-      <c r="E139" t="s">
-        <v>519</v>
-      </c>
-      <c r="F139">
-        <v>265.88333333333333</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D140" t="s">
-        <v>337</v>
-      </c>
-      <c r="E140" t="s">
-        <v>520</v>
-      </c>
-      <c r="F140">
-        <v>78.066666666666663</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D141" t="s">
-        <v>338</v>
-      </c>
-      <c r="E141" t="s">
-        <v>521</v>
-      </c>
-      <c r="F141">
-        <v>18.016666666666669</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D142" t="s">
-        <v>339</v>
-      </c>
-      <c r="E142" t="s">
-        <v>339</v>
-      </c>
-      <c r="F142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D143" t="s">
-        <v>340</v>
-      </c>
-      <c r="E143" t="s">
-        <v>340</v>
-      </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D144" t="s">
-        <v>341</v>
-      </c>
-      <c r="E144" t="s">
-        <v>522</v>
-      </c>
-      <c r="F144">
-        <v>30.31666666666667</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D145" t="s">
-        <v>342</v>
-      </c>
-      <c r="E145" t="s">
-        <v>523</v>
-      </c>
-      <c r="F145">
-        <v>14.71666666666667</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D146" t="s">
-        <v>343</v>
-      </c>
-      <c r="E146" t="s">
-        <v>524</v>
-      </c>
-      <c r="F146">
-        <v>3.1333333333333329</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D147" t="s">
-        <v>344</v>
-      </c>
-      <c r="E147" t="s">
-        <v>525</v>
-      </c>
-      <c r="F147">
-        <v>1.033333333333333</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D148" t="s">
-        <v>345</v>
-      </c>
-      <c r="E148" t="s">
-        <v>345</v>
-      </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D149" t="s">
-        <v>346</v>
-      </c>
-      <c r="E149" t="s">
-        <v>346</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D150" t="s">
-        <v>347</v>
-      </c>
-      <c r="E150" t="s">
-        <v>347</v>
-      </c>
-      <c r="F150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D151" t="s">
-        <v>348</v>
-      </c>
-      <c r="E151" t="s">
-        <v>526</v>
-      </c>
-      <c r="F151">
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D152" t="s">
-        <v>349</v>
-      </c>
-      <c r="E152" t="s">
-        <v>527</v>
-      </c>
-      <c r="F152">
-        <v>14.81666666666667</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D153" t="s">
-        <v>350</v>
-      </c>
-      <c r="E153" t="s">
-        <v>528</v>
-      </c>
-      <c r="F153">
-        <v>28.866666666666671</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D154" t="s">
-        <v>351</v>
-      </c>
-      <c r="E154" t="s">
-        <v>529</v>
-      </c>
-      <c r="F154">
-        <v>16.283333333333331</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D155" t="s">
-        <v>352</v>
-      </c>
-      <c r="E155" t="s">
-        <v>530</v>
-      </c>
-      <c r="F155">
-        <v>16.416666666666671</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D156" t="s">
-        <v>353</v>
-      </c>
-      <c r="E156" t="s">
-        <v>353</v>
-      </c>
-      <c r="F156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D157" t="s">
-        <v>354</v>
-      </c>
-      <c r="E157" t="s">
-        <v>531</v>
-      </c>
-      <c r="F157">
-        <v>43.766666666666673</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D158" t="s">
-        <v>200</v>
-      </c>
-      <c r="E158" t="s">
-        <v>200</v>
-      </c>
-      <c r="F158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D159" t="s">
-        <v>355</v>
-      </c>
-      <c r="E159" t="s">
-        <v>532</v>
-      </c>
-      <c r="F159">
-        <v>24.95</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D160" t="s">
-        <v>356</v>
-      </c>
-      <c r="E160" t="s">
-        <v>356</v>
-      </c>
-      <c r="F160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D161" t="s">
-        <v>357</v>
-      </c>
-      <c r="E161" t="s">
-        <v>533</v>
-      </c>
-      <c r="F161">
-        <v>26.016666666666669</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D162" t="s">
-        <v>358</v>
-      </c>
-      <c r="E162" t="s">
-        <v>534</v>
-      </c>
-      <c r="F162">
-        <v>26.583333333333329</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D163" t="s">
-        <v>359</v>
-      </c>
-      <c r="E163" t="s">
-        <v>535</v>
-      </c>
-      <c r="F163">
-        <v>28.883333333333329</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D164" t="s">
-        <v>360</v>
-      </c>
-      <c r="E164" t="s">
-        <v>536</v>
-      </c>
-      <c r="F164">
-        <v>41.383333333333333</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D165" t="s">
-        <v>361</v>
-      </c>
-      <c r="E165" t="s">
-        <v>361</v>
-      </c>
-      <c r="F165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D166" t="s">
-        <v>362</v>
-      </c>
-      <c r="E166" t="s">
-        <v>537</v>
-      </c>
-      <c r="F166">
-        <v>50.283333333333331</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D167" t="s">
-        <v>363</v>
-      </c>
-      <c r="E167" t="s">
-        <v>538</v>
-      </c>
-      <c r="F167">
-        <v>120.5333333333333</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D168" t="s">
-        <v>364</v>
-      </c>
-      <c r="E168" t="s">
-        <v>539</v>
-      </c>
-      <c r="F168">
-        <v>216.06666666666669</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D169" t="s">
-        <v>365</v>
-      </c>
-      <c r="E169" t="s">
-        <v>540</v>
-      </c>
-      <c r="F169">
-        <v>44.083333333333343</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D170" t="s">
-        <v>366</v>
-      </c>
-      <c r="E170" t="s">
-        <v>366</v>
-      </c>
-      <c r="F170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D171" t="s">
-        <v>367</v>
-      </c>
-      <c r="E171" t="s">
-        <v>541</v>
-      </c>
-      <c r="F171">
-        <v>4.6333333333333337</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D172" t="s">
-        <v>368</v>
-      </c>
-      <c r="E172" t="s">
-        <v>368</v>
-      </c>
-      <c r="F172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D173" t="s">
-        <v>369</v>
-      </c>
-      <c r="E173" t="s">
-        <v>542</v>
-      </c>
-      <c r="F173">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D174" t="s">
-        <v>370</v>
-      </c>
-      <c r="E174" t="s">
-        <v>370</v>
-      </c>
-      <c r="F174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D175" t="s">
-        <v>371</v>
-      </c>
-      <c r="E175" t="s">
-        <v>543</v>
-      </c>
-      <c r="F175">
-        <v>25.516666666666669</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D176" t="s">
-        <v>372</v>
-      </c>
-      <c r="E176" t="s">
-        <v>544</v>
-      </c>
-      <c r="F176">
-        <v>3.1833333333333331</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D177" t="s">
-        <v>373</v>
-      </c>
-      <c r="E177" t="s">
-        <v>545</v>
-      </c>
-      <c r="F177">
+      <c r="I20">
+        <f>I19/H19</f>
+        <v>163.95611111111111</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="K20">
+        <f>K19/J19</f>
+        <v>106.37254901960786</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D178" t="s">
-        <v>374</v>
-      </c>
-      <c r="E178" t="s">
-        <v>546</v>
-      </c>
-      <c r="F178">
-        <v>1.0166666666666671</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D179" t="s">
-        <v>375</v>
-      </c>
-      <c r="E179" t="s">
-        <v>547</v>
-      </c>
-      <c r="F179">
-        <v>1.033333333333333</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D180" t="s">
-        <v>376</v>
-      </c>
-      <c r="E180" t="s">
-        <v>548</v>
-      </c>
-      <c r="F180">
-        <v>9.8833333333333329</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D181" t="s">
-        <v>377</v>
-      </c>
-      <c r="E181" t="s">
-        <v>377</v>
-      </c>
-      <c r="F181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D182" t="s">
-        <v>378</v>
-      </c>
-      <c r="E182" t="s">
-        <v>378</v>
-      </c>
-      <c r="F182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D183" t="s">
-        <v>379</v>
-      </c>
-      <c r="E183" t="s">
-        <v>549</v>
-      </c>
-      <c r="F183">
-        <v>3.666666666666667</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D184" t="s">
-        <v>380</v>
-      </c>
-      <c r="E184" t="s">
-        <v>550</v>
-      </c>
-      <c r="F184">
-        <v>8.35</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D185" t="s">
-        <v>381</v>
-      </c>
-      <c r="E185" t="s">
-        <v>551</v>
-      </c>
-      <c r="F185">
-        <v>18.850000000000001</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D186" t="s">
-        <v>382</v>
-      </c>
-      <c r="E186" t="s">
-        <v>382</v>
-      </c>
-      <c r="F186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D187" t="s">
-        <v>383</v>
-      </c>
-      <c r="E187" t="s">
-        <v>552</v>
-      </c>
-      <c r="F187">
-        <v>1.0666666666666671</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D188" t="s">
-        <v>384</v>
-      </c>
-      <c r="E188" t="s">
-        <v>553</v>
-      </c>
-      <c r="F188">
-        <v>22.7</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D189" t="s">
-        <v>385</v>
-      </c>
-      <c r="E189" t="s">
-        <v>554</v>
-      </c>
-      <c r="F189">
-        <v>13.633333333333329</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D190" t="s">
-        <v>386</v>
-      </c>
-      <c r="E190" t="s">
-        <v>555</v>
-      </c>
-      <c r="F190">
-        <v>10.18333333333333</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D191" t="s">
-        <v>387</v>
-      </c>
-      <c r="E191" t="s">
-        <v>556</v>
-      </c>
-      <c r="F191">
-        <v>19.899999999999999</v>
+      <c r="M20">
+        <f>M19/L19</f>
+        <v>133.05652173913043</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+      <c r="O20">
+        <f>O19/N19</f>
+        <v>18.966666666666665</v>
+      </c>
+      <c r="P20">
+        <f>P19/P18</f>
+        <v>13.571428571428571</v>
+      </c>
+      <c r="Q20">
+        <f>Q19/P19</f>
+        <v>96.016052631578944</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>